--- a/DSE analysis.xlsx
+++ b/DSE analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ED449C9-A686-5E43-AC40-AFC3B840DDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FAE2735-7E8B-A84B-87B5-276996C9F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21460" xr2:uid="{545AFAD1-BE4D-B745-BE74-73AD421FDB4D}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21400" xr2:uid="{545AFAD1-BE4D-B745-BE74-73AD421FDB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="DSE" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId7"/>
-    <pivotCache cacheId="18" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>第三：1月（平均搜尋量：30.21）</t>
-  </si>
-  <si>
-    <t>2020年至2025年的DSE搜尋趨勢數據分析中，可以觀察到以下幾個主要趨勢：</t>
   </si>
   <si>
     <r>
@@ -159,30 +156,84 @@
       <t>：DSE搜尋量呈現明顯的季節性模式，與考試和放榜的時間點高度相關，顯示出考生及相關人士行為的規律性。</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1C2024"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1C2024"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1C2024"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1C2024"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1C2024"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>搜尋趨勢數據分析中，可以觀察到以下幾個主要趨勢：</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Aptos Display"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -190,7 +241,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -198,7 +249,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -206,35 +257,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,7 +293,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -250,14 +301,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -265,14 +316,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +331,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -288,49 +339,49 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -345,6 +396,20 @@
       <color rgb="FF1C2024"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1C2024"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="33">
@@ -708,50 +773,54 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="40" formatCode="m/d/yy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -767,7 +836,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -864,7 +933,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2638,7 +2707,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2649,7 +2718,422 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[DSE.xlsx]每年4月的平均搜尋量!PivotTable3</c:name>
+    <c:name>[DSE analysis.xlsx]2020-2025年每年的最高搜尋量!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-HK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-HK"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2020-2025年每年的最高搜尋量'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>合計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2020-2025年每年的最高搜尋量'!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2020-2025年每年的最高搜尋量'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6025-814D-BFCD-805ED293950C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="376050016"/>
+        <c:axId val="376101376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="376050016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376101376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="376101376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376050016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-HK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-HK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[DSE analysis.xlsx]每年4月的平均搜尋量!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2727,7 +3211,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-HK"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2757,7 +3241,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>合計</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3057,10 +3541,1035 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[DSE analysis.xlsx]4月和7月的搜尋量差異!PivotTable4</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-HK"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-HK"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4月和7月的搜尋量差異'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4月和7月的搜尋量差異'!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4月和7月的搜尋量差異'!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>55.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86E5-7749-A674-7B06F2B5737B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4月和7月的搜尋量差異'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4月和7月的搜尋量差異'!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4月和7月的搜尋量差異'!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-86E5-7749-A674-7B06F2B5737B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="669395856"/>
+        <c:axId val="669397568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="669395856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669397568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669397568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669395856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-HK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-HK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[DSE analysis.xlsx]月份統計表!PivotTable6</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-HK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-HK"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>月份統計表!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>合計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>月份統計表!$A$4:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>月份統計表!$B$4:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>28.217391304347824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.772727272727273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.61904761904762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.478260869565219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.59090909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.476190476190474</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.904761904761905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.181818181818183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-366A-5643-984D-0ABDAD56EFF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="376411520"/>
+        <c:axId val="376407024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="376411520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376407024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="376407024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376411520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-HK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-HK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4995,6 +6504,126 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6054,6 +7683,1515 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6575,14 +9713,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>821764</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>97117</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>515469</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>474133</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>194234</xdr:rowOff>
+      <xdr:rowOff>194235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6611,6 +9749,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9ED987A-EBC9-1327-2547-18EB00E3CD6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6651,7 +9830,89 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>705385</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>648770</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EC2710-B2D6-CB61-6874-B8A6619836D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157ADF87-FFE1-2BF3-7E58-552E5D16EB51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9658,7 +12919,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A133751-AC79-154C-B7B8-0AAF4407BB64}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A133751-AC79-154C-B7B8-0AAF4407BB64}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField numFmtId="14" showAll="0"/>
@@ -9707,6 +12968,17 @@
   <dataFields count="1">
     <dataField name="Max of DSE: (Hong Kong)" fld="1" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -9720,7 +12992,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9E92767-C3CA-674C-9816-D0C29A61BFDF}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9E92767-C3CA-674C-9816-D0C29A61BFDF}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField numFmtId="14" showAll="0"/>
@@ -9814,7 +13086,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCA7970E-B70E-E047-B9C3-D55825E9636F}" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCA7970E-B70E-E047-B9C3-D55825E9636F}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField numFmtId="14" showAll="0"/>
@@ -9891,6 +13163,32 @@
   <dataFields count="1">
     <dataField name="Average of DSE: (Hong Kong)" fld="1" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -9904,7 +13202,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DD97B6E-7ADF-8F4C-9ADA-A6CDF69855FC}" name="PivotTable6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DD97B6E-7ADF-8F4C-9ADA-A6CDF69855FC}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField numFmtId="14" showAll="0"/>
@@ -9978,6 +13276,17 @@
   <dataFields count="1">
     <dataField name="Average of DSE: (Hong Kong)" fld="1" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -9990,8 +13299,25 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EACB5DCF-0514-574A-8DDD-8E146B099AEC}" name="Table1" displayName="Table1" ref="A3:D264" totalsRowShown="0">
+  <autoFilter ref="A3:D264" xr:uid="{009B9322-90A0-984B-9744-73A83F06EE9B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{AD9F2DD8-6DE6-2143-B586-258FCA2C2FD0}" name="Week" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E8B4112E-A483-E241-8088-7EC911AF18F5}" name="DSE: (Hong Kong)"/>
+    <tableColumn id="3" xr3:uid="{31CE59B2-051F-C049-B06F-D81602F02E69}" name="Year">
+      <calculatedColumnFormula>YEAR(A4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B2DBBB18-9B4A-E546-8E5E-57D233AC721C}" name="Month">
+      <calculatedColumnFormula>MONTH(A4)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10309,18 +13635,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009B9322-90A0-984B-9744-73A83F06EE9B}">
   <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D264"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10334,7 +13663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>43933</v>
       </c>
@@ -10350,7 +13679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45746</v>
       </c>
@@ -10366,7 +13695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45389</v>
       </c>
@@ -10382,7 +13711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45032</v>
       </c>
@@ -10398,7 +13727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45039</v>
       </c>
@@ -10414,7 +13743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>44668</v>
       </c>
@@ -10430,7 +13759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>43947</v>
       </c>
@@ -10446,7 +13775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>44311</v>
       </c>
@@ -10462,7 +13791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>44675</v>
       </c>
@@ -10478,7 +13807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>45396</v>
       </c>
@@ -10494,7 +13823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>45753</v>
       </c>
@@ -10510,7 +13839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>45487</v>
       </c>
@@ -10526,7 +13855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>45123</v>
       </c>
@@ -10542,7 +13871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>43940</v>
       </c>
@@ -10558,7 +13887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>44759</v>
       </c>
@@ -10574,7 +13903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>45739</v>
       </c>
@@ -10590,7 +13919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>45732</v>
       </c>
@@ -10606,7 +13935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>44304</v>
       </c>
@@ -10622,7 +13951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>45725</v>
       </c>
@@ -10638,7 +13967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>45046</v>
       </c>
@@ -10654,7 +13983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>44031</v>
       </c>
@@ -10670,7 +13999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>44318</v>
       </c>
@@ -10686,7 +14015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>45025</v>
       </c>
@@ -10702,7 +14031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="20">
       <c r="A27" s="1">
         <v>45662</v>
       </c>
@@ -10721,7 +14050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="20">
       <c r="A28" s="1">
         <v>45361</v>
       </c>
@@ -10740,7 +14069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="20">
       <c r="A29" s="1">
         <v>45375</v>
       </c>
@@ -10759,7 +14088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="20">
       <c r="A30" s="1">
         <v>45718</v>
       </c>
@@ -10776,7 +14105,7 @@
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="20">
       <c r="A31" s="1">
         <v>44395</v>
       </c>
@@ -10793,7 +14122,7 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="20">
       <c r="A32" s="1">
         <v>44661</v>
       </c>
@@ -10810,7 +14139,7 @@
       </c>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="23">
       <c r="A33" s="1">
         <v>44682</v>
       </c>
@@ -10826,10 +14155,10 @@
         <v>5</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="22" customHeight="1">
       <c r="A34" s="1">
         <v>45004</v>
       </c>
@@ -10845,10 +14174,10 @@
         <v>3</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="22" customHeight="1">
       <c r="A35" s="1">
         <v>45368</v>
       </c>
@@ -10864,10 +14193,10 @@
         <v>3</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="22" customHeight="1">
       <c r="A36" s="1">
         <v>45382</v>
       </c>
@@ -10883,10 +14212,10 @@
         <v>3</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="22" customHeight="1">
       <c r="A37" s="1">
         <v>45403</v>
       </c>
@@ -10902,10 +14231,10 @@
         <v>4</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="22" customHeight="1">
       <c r="A38" s="1">
         <v>44654</v>
       </c>
@@ -10921,10 +14250,10 @@
         <v>4</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" customHeight="1">
       <c r="A39" s="1">
         <v>45011</v>
       </c>
@@ -10940,7 +14269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>45704</v>
       </c>
@@ -10956,7 +14285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>45711</v>
       </c>
@@ -10972,7 +14301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>45018</v>
       </c>
@@ -10988,7 +14317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>43954</v>
       </c>
@@ -11004,7 +14333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>45319</v>
       </c>
@@ -11020,7 +14349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>45634</v>
       </c>
@@ -11036,7 +14365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44297</v>
       </c>
@@ -11052,7 +14381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45298</v>
       </c>
@@ -11068,7 +14397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>45354</v>
       </c>
@@ -11084,7 +14413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>45655</v>
       </c>
@@ -11100,7 +14429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>45676</v>
       </c>
@@ -11116,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>45697</v>
       </c>
@@ -11132,7 +14461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>44647</v>
       </c>
@@ -11148,7 +14477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>44997</v>
       </c>
@@ -11164,7 +14493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>45347</v>
       </c>
@@ -11180,7 +14509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>44990</v>
       </c>
@@ -11196,7 +14525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>45585</v>
       </c>
@@ -11212,7 +14541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>45669</v>
       </c>
@@ -11228,7 +14557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>45340</v>
       </c>
@@ -11244,7 +14573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>45564</v>
       </c>
@@ -11260,7 +14589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>45641</v>
       </c>
@@ -11276,7 +14605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>43961</v>
       </c>
@@ -11292,7 +14621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>44325</v>
       </c>
@@ -11308,7 +14637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>45291</v>
       </c>
@@ -11324,7 +14653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>45312</v>
       </c>
@@ -11340,7 +14669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>45578</v>
       </c>
@@ -11356,7 +14685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>45592</v>
       </c>
@@ -11372,7 +14701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>45613</v>
       </c>
@@ -11388,7 +14717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>45620</v>
       </c>
@@ -11404,7 +14733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>45305</v>
       </c>
@@ -11420,7 +14749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>45599</v>
       </c>
@@ -11436,7 +14765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>45627</v>
       </c>
@@ -11452,7 +14781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>45690</v>
       </c>
@@ -11468,7 +14797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>44290</v>
       </c>
@@ -11484,7 +14813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>44563</v>
       </c>
@@ -11500,7 +14829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>44640</v>
       </c>
@@ -11516,7 +14845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>44934</v>
       </c>
@@ -11532,7 +14861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>44976</v>
       </c>
@@ -11548,7 +14877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>44983</v>
       </c>
@@ -11564,7 +14893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>45053</v>
       </c>
@@ -11580,7 +14909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>45256</v>
       </c>
@@ -11596,7 +14925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>45263</v>
       </c>
@@ -11612,7 +14941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>45431</v>
       </c>
@@ -11628,7 +14957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>45606</v>
       </c>
@@ -11644,7 +14973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>45648</v>
       </c>
@@ -11660,7 +14989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>43968</v>
       </c>
@@ -11676,7 +15005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>44962</v>
       </c>
@@ -11692,7 +15021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>44969</v>
       </c>
@@ -11708,7 +15037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>45410</v>
       </c>
@@ -11724,7 +15053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>45536</v>
       </c>
@@ -11740,7 +15069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>45543</v>
       </c>
@@ -11756,7 +15085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>45557</v>
       </c>
@@ -11772,7 +15101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>44570</v>
       </c>
@@ -11788,7 +15117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>44612</v>
       </c>
@@ -11804,7 +15133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>44619</v>
       </c>
@@ -11820,7 +15149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>44927</v>
       </c>
@@ -11836,7 +15165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>44955</v>
       </c>
@@ -11852,7 +15181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>45221</v>
       </c>
@@ -11868,7 +15197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>45228</v>
       </c>
@@ -11884,7 +15213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>45249</v>
       </c>
@@ -11900,7 +15229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>45438</v>
       </c>
@@ -11916,7 +15245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>45445</v>
       </c>
@@ -11932,7 +15261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>45452</v>
       </c>
@@ -11948,7 +15277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>45550</v>
       </c>
@@ -11964,7 +15293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>45571</v>
       </c>
@@ -11980,7 +15309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>44276</v>
       </c>
@@ -11996,7 +15325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>44283</v>
       </c>
@@ -12012,7 +15341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>45193</v>
       </c>
@@ -12028,7 +15357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>45200</v>
       </c>
@@ -12044,7 +15373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>45214</v>
       </c>
@@ -12060,7 +15389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>45242</v>
       </c>
@@ -12076,7 +15405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>45270</v>
       </c>
@@ -12092,7 +15421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>45326</v>
       </c>
@@ -12108,7 +15437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>44269</v>
       </c>
@@ -12124,7 +15453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>44584</v>
       </c>
@@ -12140,7 +15469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>44626</v>
       </c>
@@ -12156,7 +15485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>44633</v>
       </c>
@@ -12172,7 +15501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>44689</v>
       </c>
@@ -12188,7 +15517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>44745</v>
       </c>
@@ -12204,7 +15533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>44906</v>
       </c>
@@ -12220,7 +15549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>45179</v>
       </c>
@@ -12236,7 +15565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>45235</v>
       </c>
@@ -12252,7 +15581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>45333</v>
       </c>
@@ -12268,7 +15597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>44199</v>
       </c>
@@ -12284,7 +15613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>44206</v>
       </c>
@@ -12300,7 +15629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>44535</v>
       </c>
@@ -12316,7 +15645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>44857</v>
       </c>
@@ -12332,7 +15661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>44878</v>
       </c>
@@ -12348,7 +15677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>44892</v>
       </c>
@@ -12364,7 +15693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>44899</v>
       </c>
@@ -12380,7 +15709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>45081</v>
       </c>
@@ -12396,7 +15725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>45207</v>
       </c>
@@ -12412,7 +15741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>44171</v>
       </c>
@@ -12428,7 +15757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>44213</v>
       </c>
@@ -12444,7 +15773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>44220</v>
       </c>
@@ -12460,7 +15789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>44248</v>
       </c>
@@ -12476,7 +15805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>44255</v>
       </c>
@@ -12492,7 +15821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>44262</v>
       </c>
@@ -12508,7 +15837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>44493</v>
       </c>
@@ -12524,7 +15853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>44514</v>
       </c>
@@ -12540,7 +15869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>44577</v>
       </c>
@@ -12556,7 +15885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>44605</v>
       </c>
@@ -12572,7 +15901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>44822</v>
       </c>
@@ -12588,7 +15917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>44843</v>
       </c>
@@ -12604,7 +15933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>44850</v>
       </c>
@@ -12620,7 +15949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>44871</v>
       </c>
@@ -12636,7 +15965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>45074</v>
       </c>
@@ -12652,7 +15981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>45172</v>
       </c>
@@ -12668,7 +15997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>45186</v>
       </c>
@@ -12684,7 +16013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>45284</v>
       </c>
@@ -12700,7 +16029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>45683</v>
       </c>
@@ -12716,7 +16045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>44178</v>
       </c>
@@ -12732,7 +16061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>44227</v>
       </c>
@@ -12748,7 +16077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>44486</v>
       </c>
@@ -12764,7 +16093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>44507</v>
       </c>
@@ -12780,7 +16109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>44521</v>
       </c>
@@ -12796,7 +16125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>44528</v>
       </c>
@@ -12812,7 +16141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>44542</v>
       </c>
@@ -12828,7 +16157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>44598</v>
       </c>
@@ -12844,7 +16173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>44836</v>
       </c>
@@ -12860,7 +16189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>44885</v>
       </c>
@@ -12876,7 +16205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>44941</v>
       </c>
@@ -12892,7 +16221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>45060</v>
       </c>
@@ -12908,7 +16237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>45088</v>
       </c>
@@ -12924,7 +16253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>44472</v>
       </c>
@@ -12940,7 +16269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>44731</v>
       </c>
@@ -12956,7 +16285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>44738</v>
       </c>
@@ -12972,7 +16301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>44752</v>
       </c>
@@ -12988,7 +16317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>44808</v>
       </c>
@@ -13004,7 +16333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>44815</v>
       </c>
@@ -13020,7 +16349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>44829</v>
       </c>
@@ -13036,7 +16365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>45277</v>
       </c>
@@ -13052,7 +16381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>45480</v>
       </c>
@@ -13068,7 +16397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>44073</v>
       </c>
@@ -13084,7 +16413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" s="1">
         <v>44164</v>
       </c>
@@ -13100,7 +16429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175" s="1">
         <v>44346</v>
       </c>
@@ -13116,7 +16445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" s="1">
         <v>44479</v>
       </c>
@@ -13132,7 +16461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>44500</v>
       </c>
@@ -13148,7 +16477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>44864</v>
       </c>
@@ -13164,7 +16493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>45417</v>
       </c>
@@ -13180,7 +16509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>45494</v>
       </c>
@@ -13196,7 +16525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>44038</v>
       </c>
@@ -13212,7 +16541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>44080</v>
       </c>
@@ -13228,7 +16557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>44087</v>
       </c>
@@ -13244,7 +16573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>44094</v>
       </c>
@@ -13260,7 +16589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" s="1">
         <v>44150</v>
       </c>
@@ -13276,7 +16605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>44451</v>
       </c>
@@ -13292,7 +16621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>44556</v>
       </c>
@@ -13308,7 +16637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>44696</v>
       </c>
@@ -13324,7 +16653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>44766</v>
       </c>
@@ -13340,7 +16669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>44920</v>
       </c>
@@ -13356,7 +16685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>45067</v>
       </c>
@@ -13372,7 +16701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" s="1">
         <v>45424</v>
       </c>
@@ -13388,7 +16717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193" s="1">
         <v>45459</v>
       </c>
@@ -13404,7 +16733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>45522</v>
       </c>
@@ -13420,7 +16749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>45529</v>
       </c>
@@ -13436,7 +16765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>44108</v>
       </c>
@@ -13452,7 +16781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>44122</v>
       </c>
@@ -13468,7 +16797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>44143</v>
       </c>
@@ -13484,7 +16813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>44157</v>
       </c>
@@ -13500,7 +16829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>44332</v>
       </c>
@@ -13516,7 +16845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>44353</v>
       </c>
@@ -13532,7 +16861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>44444</v>
       </c>
@@ -13548,7 +16877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
         <v>44458</v>
       </c>
@@ -13564,7 +16893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
         <v>44465</v>
       </c>
@@ -13580,7 +16909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
         <v>44724</v>
       </c>
@@ -13596,7 +16925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>45116</v>
       </c>
@@ -13612,7 +16941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207" s="1">
         <v>45130</v>
       </c>
@@ -13628,7 +16957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208" s="1">
         <v>44052</v>
       </c>
@@ -13644,7 +16973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209" s="1">
         <v>44059</v>
       </c>
@@ -13660,7 +16989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210" s="1">
         <v>44115</v>
       </c>
@@ -13676,7 +17005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211" s="1">
         <v>44136</v>
       </c>
@@ -13692,7 +17021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212" s="1">
         <v>44703</v>
       </c>
@@ -13708,7 +17037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>44717</v>
       </c>
@@ -13724,7 +17053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214" s="1">
         <v>44801</v>
       </c>
@@ -13740,7 +17069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215" s="1">
         <v>44913</v>
       </c>
@@ -13756,7 +17085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216" s="1">
         <v>45466</v>
       </c>
@@ -13772,7 +17101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217" s="1">
         <v>45515</v>
       </c>
@@ -13788,7 +17117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4">
       <c r="A218" s="1">
         <v>44017</v>
       </c>
@@ -13804,7 +17133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219" s="1">
         <v>44066</v>
       </c>
@@ -13820,7 +17149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220" s="1">
         <v>44101</v>
       </c>
@@ -13836,7 +17165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221" s="1">
         <v>44241</v>
       </c>
@@ -13852,7 +17181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>44339</v>
       </c>
@@ -13868,7 +17197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4">
       <c r="A223" s="1">
         <v>44437</v>
       </c>
@@ -13884,7 +17213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4">
       <c r="A224" s="1">
         <v>44591</v>
       </c>
@@ -13900,7 +17229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225" s="1">
         <v>44780</v>
       </c>
@@ -13916,7 +17245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226" s="1">
         <v>44948</v>
       </c>
@@ -13932,7 +17261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227" s="1">
         <v>45151</v>
       </c>
@@ -13948,7 +17277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" s="1">
         <v>45158</v>
       </c>
@@ -13964,7 +17293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" s="1">
         <v>45165</v>
       </c>
@@ -13980,7 +17309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" s="1">
         <v>43996</v>
       </c>
@@ -13996,7 +17325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231" s="1">
         <v>44010</v>
       </c>
@@ -14012,7 +17341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232" s="1">
         <v>44045</v>
       </c>
@@ -14028,7 +17357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233" s="1">
         <v>44129</v>
       </c>
@@ -14044,7 +17373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" s="1">
         <v>44185</v>
       </c>
@@ -14060,7 +17389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" s="1">
         <v>44192</v>
       </c>
@@ -14076,7 +17405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236" s="1">
         <v>44234</v>
       </c>
@@ -14092,7 +17421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237" s="1">
         <v>44360</v>
       </c>
@@ -14108,7 +17437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238" s="1">
         <v>44402</v>
       </c>
@@ -14124,7 +17453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" s="1">
         <v>44710</v>
       </c>
@@ -14140,7 +17469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" s="1">
         <v>44773</v>
       </c>
@@ -14156,7 +17485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241" s="1">
         <v>44787</v>
       </c>
@@ -14172,7 +17501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242" s="1">
         <v>45095</v>
       </c>
@@ -14188,7 +17517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243" s="1">
         <v>45109</v>
       </c>
@@ -14204,7 +17533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244" s="1">
         <v>45144</v>
       </c>
@@ -14220,7 +17549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245" s="1">
         <v>45473</v>
       </c>
@@ -14236,7 +17565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4">
       <c r="A246" s="1">
         <v>45508</v>
       </c>
@@ -14252,7 +17581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4">
       <c r="A247" s="1">
         <v>43982</v>
       </c>
@@ -14268,7 +17597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4">
       <c r="A248" s="1">
         <v>43989</v>
       </c>
@@ -14284,7 +17613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249" s="1">
         <v>44003</v>
       </c>
@@ -14300,7 +17629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250" s="1">
         <v>44024</v>
       </c>
@@ -14316,7 +17645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4">
       <c r="A251" s="1">
         <v>44388</v>
       </c>
@@ -14332,7 +17661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4">
       <c r="A252" s="1">
         <v>44423</v>
       </c>
@@ -14348,7 +17677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4">
       <c r="A253" s="1">
         <v>44549</v>
       </c>
@@ -14364,7 +17693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254" s="1">
         <v>44794</v>
       </c>
@@ -14380,7 +17709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255" s="1">
         <v>45137</v>
       </c>
@@ -14396,7 +17725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256" s="1">
         <v>43975</v>
       </c>
@@ -14412,7 +17741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257" s="1">
         <v>44367</v>
       </c>
@@ -14428,7 +17757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258" s="1">
         <v>44381</v>
       </c>
@@ -14444,7 +17773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259" s="1">
         <v>44430</v>
       </c>
@@ -14460,7 +17789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260" s="1">
         <v>45102</v>
       </c>
@@ -14476,7 +17805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261" s="1">
         <v>45501</v>
       </c>
@@ -14492,7 +17821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4">
       <c r="A262" s="1">
         <v>44416</v>
       </c>
@@ -14508,7 +17837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263" s="1">
         <v>44374</v>
       </c>
@@ -14524,7 +17853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4">
       <c r="A264" s="1">
         <v>44409</v>
       </c>
@@ -14541,10 +17870,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D264" xr:uid="{009B9322-90A0-984B-9744-73A83F06EE9B}"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -14553,16 +17885,16 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -14570,7 +17902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>2020</v>
       </c>
@@ -14578,7 +17910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>2021</v>
       </c>
@@ -14586,7 +17918,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>2022</v>
       </c>
@@ -14594,7 +17926,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>2023</v>
       </c>
@@ -14602,7 +17934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>2024</v>
       </c>
@@ -14610,7 +17942,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>2025</v>
       </c>
@@ -14618,7 +17950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -14627,7 +17959,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14639,13 +17973,13 @@
       <selection activeCell="A5" sqref="A5:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -14653,7 +17987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -14661,7 +17995,7 @@
         <v>57.61904761904762</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="10">
         <v>2020</v>
       </c>
@@ -14669,7 +18003,7 @@
         <v>55.666666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="10">
         <v>2021</v>
       </c>
@@ -14677,7 +18011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="10">
         <v>2022</v>
       </c>
@@ -14685,7 +18019,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="10">
         <v>2023</v>
       </c>
@@ -14693,7 +18027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="10">
         <v>2024</v>
       </c>
@@ -14701,7 +18035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="10">
         <v>2025</v>
       </c>
@@ -14709,7 +18043,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -14718,6 +18052,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14728,10 +18063,10 @@
   <dimension ref="A3:D11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="166" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -14740,7 +18075,7 @@
     <col min="13" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -14748,7 +18083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -14762,7 +18097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -14776,7 +18111,7 @@
         <v>38.285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>2021</v>
       </c>
@@ -14790,7 +18125,7 @@
         <v>35.125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>2022</v>
       </c>
@@ -14804,7 +18139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
@@ -14818,7 +18153,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -14832,7 +18167,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>2025</v>
       </c>
@@ -14843,7 +18178,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -14858,7 +18193,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14867,16 +18204,16 @@
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -14884,7 +18221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -14892,7 +18229,7 @@
         <v>28.217391304347824</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -14900,7 +18237,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -14908,7 +18245,7 @@
         <v>40.772727272727273</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -14916,7 +18253,7 @@
         <v>57.61904761904762</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -14924,7 +18261,7 @@
         <v>25.478260869565219</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -14932,7 +18269,7 @@
         <v>18.666666666666668</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -14940,7 +18277,7 @@
         <v>26.59090909090909</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -14948,7 +18285,7 @@
         <v>16.727272727272727</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -14956,7 +18293,7 @@
         <v>23.476190476190474</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -14964,7 +18301,7 @@
         <v>24.391304347826086</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -14972,7 +18309,7 @@
         <v>24.904761904761905</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -14980,7 +18317,7 @@
         <v>25.181818181818183</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -14989,7 +18326,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15001,14 +18340,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -15016,7 +18355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>45746</v>
       </c>
@@ -15024,7 +18363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>45389</v>
       </c>
@@ -15032,7 +18371,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>45032</v>
       </c>
@@ -15040,7 +18379,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>45039</v>
       </c>
@@ -15048,7 +18387,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>44668</v>
       </c>
@@ -15056,7 +18395,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43947</v>
       </c>
@@ -15064,7 +18403,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>44311</v>
       </c>
@@ -15072,7 +18411,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>44675</v>
       </c>
@@ -15080,7 +18419,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>45396</v>
       </c>
@@ -15088,7 +18427,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>45753</v>
       </c>
@@ -15096,7 +18435,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>45487</v>
       </c>
@@ -15104,7 +18443,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>45123</v>
       </c>
@@ -15112,7 +18451,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>43940</v>
       </c>
@@ -15120,7 +18459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>44759</v>
       </c>
@@ -15128,7 +18467,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>45739</v>
       </c>
@@ -15136,7 +18475,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>45732</v>
       </c>
@@ -15144,7 +18483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>44304</v>
       </c>
@@ -15152,7 +18491,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>45725</v>
       </c>
@@ -15160,7 +18499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>45046</v>
       </c>
@@ -15168,7 +18507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>44031</v>
       </c>
@@ -15176,7 +18515,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>44318</v>
       </c>
@@ -15184,7 +18523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>45025</v>
       </c>
@@ -15192,7 +18531,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>45662</v>
       </c>
@@ -15200,7 +18539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>45361</v>
       </c>
@@ -15208,7 +18547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>45375</v>
       </c>
@@ -15216,7 +18555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>45718</v>
       </c>
@@ -15224,7 +18563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>44395</v>
       </c>
@@ -15232,7 +18571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>44661</v>
       </c>
@@ -15240,7 +18579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>44682</v>
       </c>
@@ -15248,7 +18587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>45004</v>
       </c>
@@ -15256,7 +18595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>45368</v>
       </c>
@@ -15264,7 +18603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>45382</v>
       </c>
@@ -15272,7 +18611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>45403</v>
       </c>
@@ -15280,7 +18619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>44654</v>
       </c>
@@ -15288,7 +18627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>45011</v>
       </c>
@@ -15296,7 +18635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>45704</v>
       </c>
@@ -15304,7 +18643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>45711</v>
       </c>
@@ -15312,7 +18651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>45018</v>
       </c>
@@ -15320,7 +18659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>43954</v>
       </c>
@@ -15328,7 +18667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>45319</v>
       </c>
@@ -15336,7 +18675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>45634</v>
       </c>
@@ -15344,7 +18683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>44297</v>
       </c>
@@ -15352,7 +18691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>45298</v>
       </c>
@@ -15360,7 +18699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>45354</v>
       </c>
@@ -15368,7 +18707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>45655</v>
       </c>
@@ -15376,7 +18715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>45676</v>
       </c>
@@ -15384,7 +18723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>45697</v>
       </c>
@@ -15392,7 +18731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>44647</v>
       </c>
@@ -15400,7 +18739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>44997</v>
       </c>
@@ -15408,7 +18747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>45347</v>
       </c>
@@ -15416,7 +18755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>44990</v>
       </c>
@@ -15424,7 +18763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>45585</v>
       </c>
@@ -15432,7 +18771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>45669</v>
       </c>
@@ -15440,7 +18779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>43933</v>
       </c>
@@ -15448,7 +18787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>45340</v>
       </c>
@@ -15456,7 +18795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>45564</v>
       </c>
@@ -15464,7 +18803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>45641</v>
       </c>
@@ -15472,7 +18811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>43961</v>
       </c>
@@ -15480,7 +18819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>44325</v>
       </c>
@@ -15488,7 +18827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>45291</v>
       </c>
@@ -15496,7 +18835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>45312</v>
       </c>
@@ -15504,7 +18843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>45578</v>
       </c>
@@ -15512,7 +18851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>45592</v>
       </c>
@@ -15520,7 +18859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>45613</v>
       </c>
@@ -15528,7 +18867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>45620</v>
       </c>
@@ -15536,7 +18875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>45305</v>
       </c>
@@ -15544,7 +18883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>45599</v>
       </c>
@@ -15552,7 +18891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>45627</v>
       </c>
@@ -15560,7 +18899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>45690</v>
       </c>
@@ -15568,7 +18907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>44290</v>
       </c>
@@ -15576,7 +18915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>44563</v>
       </c>
@@ -15584,7 +18923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>44640</v>
       </c>
@@ -15592,7 +18931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>44934</v>
       </c>
@@ -15600,7 +18939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>44976</v>
       </c>
@@ -15608,7 +18947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>44983</v>
       </c>
@@ -15616,7 +18955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>45053</v>
       </c>
@@ -15624,7 +18963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>45256</v>
       </c>
@@ -15632,7 +18971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>45263</v>
       </c>
@@ -15640,7 +18979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>45431</v>
       </c>
@@ -15648,7 +18987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>45606</v>
       </c>
@@ -15656,7 +18995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>45648</v>
       </c>
@@ -15664,7 +19003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>43968</v>
       </c>
@@ -15672,7 +19011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>44962</v>
       </c>
@@ -15680,7 +19019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>44969</v>
       </c>
@@ -15688,7 +19027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>45410</v>
       </c>
@@ -15696,7 +19035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>45536</v>
       </c>
@@ -15704,7 +19043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>45543</v>
       </c>
@@ -15712,7 +19051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>45557</v>
       </c>
@@ -15720,7 +19059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>44570</v>
       </c>
@@ -15728,7 +19067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>44612</v>
       </c>
@@ -15736,7 +19075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>44619</v>
       </c>
@@ -15744,7 +19083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>44927</v>
       </c>
@@ -15752,7 +19091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>44955</v>
       </c>
@@ -15760,7 +19099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>45221</v>
       </c>
@@ -15768,7 +19107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>45228</v>
       </c>
@@ -15776,7 +19115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>45249</v>
       </c>
@@ -15784,7 +19123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>45438</v>
       </c>
@@ -15792,7 +19131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>45445</v>
       </c>
@@ -15800,7 +19139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>45452</v>
       </c>
@@ -15808,7 +19147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>45550</v>
       </c>
@@ -15816,7 +19155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>45571</v>
       </c>
@@ -15824,7 +19163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>44276</v>
       </c>
@@ -15832,7 +19171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>44283</v>
       </c>
@@ -15840,7 +19179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>45193</v>
       </c>
@@ -15848,7 +19187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>45200</v>
       </c>
@@ -15856,7 +19195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" s="1">
         <v>45214</v>
       </c>
@@ -15864,7 +19203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>45242</v>
       </c>
@@ -15872,7 +19211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" s="1">
         <v>45270</v>
       </c>
@@ -15880,7 +19219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>45326</v>
       </c>
@@ -15888,7 +19227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>44269</v>
       </c>
@@ -15896,7 +19235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>44584</v>
       </c>
@@ -15904,7 +19243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" s="1">
         <v>44626</v>
       </c>
@@ -15912,7 +19251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>44633</v>
       </c>
@@ -15920,7 +19259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="1">
         <v>44689</v>
       </c>
@@ -15928,7 +19267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>44745</v>
       </c>
@@ -15936,7 +19275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="1">
         <v>44906</v>
       </c>
@@ -15944,7 +19283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>45179</v>
       </c>
@@ -15952,7 +19291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="1">
         <v>45235</v>
       </c>
@@ -15960,7 +19299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>45333</v>
       </c>
@@ -15968,7 +19307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>44199</v>
       </c>
@@ -15976,7 +19315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>44206</v>
       </c>
@@ -15984,7 +19323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" s="1">
         <v>44535</v>
       </c>
@@ -15992,7 +19331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>44857</v>
       </c>
@@ -16000,7 +19339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" s="1">
         <v>44878</v>
       </c>
@@ -16008,7 +19347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>44892</v>
       </c>
@@ -16016,7 +19355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" s="1">
         <v>44899</v>
       </c>
@@ -16024,7 +19363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>45081</v>
       </c>
@@ -16032,7 +19371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" s="1">
         <v>45207</v>
       </c>
@@ -16040,7 +19379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>44171</v>
       </c>
@@ -16048,7 +19387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" s="1">
         <v>44213</v>
       </c>
@@ -16056,7 +19395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>44220</v>
       </c>
@@ -16064,7 +19403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" s="1">
         <v>44248</v>
       </c>
@@ -16072,7 +19411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>44255</v>
       </c>
@@ -16080,7 +19419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" s="1">
         <v>44262</v>
       </c>
@@ -16088,7 +19427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>44493</v>
       </c>
@@ -16096,7 +19435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" s="1">
         <v>44514</v>
       </c>
@@ -16104,7 +19443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>44577</v>
       </c>
@@ -16112,7 +19451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" s="1">
         <v>44605</v>
       </c>
@@ -16120,7 +19459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>44822</v>
       </c>
@@ -16128,7 +19467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" s="1">
         <v>44843</v>
       </c>
@@ -16136,7 +19475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>44850</v>
       </c>
@@ -16144,7 +19483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" s="1">
         <v>44871</v>
       </c>
@@ -16152,7 +19491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" s="1">
         <v>45074</v>
       </c>
@@ -16160,7 +19499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" s="1">
         <v>45172</v>
       </c>
@@ -16168,7 +19507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" s="1">
         <v>45186</v>
       </c>
@@ -16176,7 +19515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" s="1">
         <v>45284</v>
       </c>
@@ -16184,7 +19523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" s="1">
         <v>45683</v>
       </c>
@@ -16192,7 +19531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="1">
         <v>44178</v>
       </c>
@@ -16200,7 +19539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="1">
         <v>44227</v>
       </c>
@@ -16208,7 +19547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" s="1">
         <v>44486</v>
       </c>
@@ -16216,7 +19555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" s="1">
         <v>44507</v>
       </c>
@@ -16224,7 +19563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" s="1">
         <v>44521</v>
       </c>
@@ -16232,7 +19571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" s="1">
         <v>44528</v>
       </c>
@@ -16240,7 +19579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="1">
         <v>44542</v>
       </c>
@@ -16248,7 +19587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="1">
         <v>44598</v>
       </c>
@@ -16256,7 +19595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="1">
         <v>44836</v>
       </c>
@@ -16264,7 +19603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="1">
         <v>44885</v>
       </c>
@@ -16272,7 +19611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" s="1">
         <v>44941</v>
       </c>
@@ -16280,7 +19619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" s="1">
         <v>45060</v>
       </c>
@@ -16288,7 +19627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163" s="1">
         <v>45088</v>
       </c>
@@ -16296,7 +19635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164" s="1">
         <v>44472</v>
       </c>
@@ -16304,7 +19643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165" s="1">
         <v>44731</v>
       </c>
@@ -16312,7 +19651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166" s="1">
         <v>44738</v>
       </c>
@@ -16320,7 +19659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167" s="1">
         <v>44752</v>
       </c>
@@ -16328,7 +19667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168" s="1">
         <v>44808</v>
       </c>
@@ -16336,7 +19675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169" s="1">
         <v>44815</v>
       </c>
@@ -16344,7 +19683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170" s="1">
         <v>44829</v>
       </c>
@@ -16352,7 +19691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171" s="1">
         <v>45277</v>
       </c>
@@ -16360,7 +19699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172" s="1">
         <v>45480</v>
       </c>
@@ -16368,7 +19707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" s="1">
         <v>44073</v>
       </c>
@@ -16376,7 +19715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174" s="1">
         <v>44164</v>
       </c>
@@ -16384,7 +19723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" s="1">
         <v>44346</v>
       </c>
@@ -16392,7 +19731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176" s="1">
         <v>44479</v>
       </c>
@@ -16400,7 +19739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" s="1">
         <v>44500</v>
       </c>
@@ -16408,7 +19747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" s="1">
         <v>44864</v>
       </c>
@@ -16416,7 +19755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" s="1">
         <v>45417</v>
       </c>
@@ -16424,7 +19763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" s="1">
         <v>45494</v>
       </c>
@@ -16432,7 +19771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" s="1">
         <v>44038</v>
       </c>
@@ -16440,7 +19779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" s="1">
         <v>44080</v>
       </c>
@@ -16448,7 +19787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" s="1">
         <v>44087</v>
       </c>
@@ -16456,7 +19795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" s="1">
         <v>44094</v>
       </c>
@@ -16464,7 +19803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" s="1">
         <v>44150</v>
       </c>
@@ -16472,7 +19811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="1">
         <v>44451</v>
       </c>
@@ -16480,7 +19819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187" s="1">
         <v>44556</v>
       </c>
@@ -16488,7 +19827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188" s="1">
         <v>44696</v>
       </c>
@@ -16496,7 +19835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189" s="1">
         <v>44766</v>
       </c>
@@ -16504,7 +19843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190" s="1">
         <v>44920</v>
       </c>
@@ -16512,7 +19851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191" s="1">
         <v>45067</v>
       </c>
@@ -16520,7 +19859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192" s="1">
         <v>45424</v>
       </c>
@@ -16528,7 +19867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" s="1">
         <v>45459</v>
       </c>
@@ -16536,7 +19875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" s="1">
         <v>45522</v>
       </c>
@@ -16544,7 +19883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" s="1">
         <v>45529</v>
       </c>
@@ -16552,7 +19891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" s="1">
         <v>44108</v>
       </c>
@@ -16560,7 +19899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" s="1">
         <v>44122</v>
       </c>
@@ -16568,7 +19907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" s="1">
         <v>44143</v>
       </c>
@@ -16576,7 +19915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" s="1">
         <v>44157</v>
       </c>
@@ -16584,7 +19923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" s="1">
         <v>44332</v>
       </c>
@@ -16592,7 +19931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" s="1">
         <v>44353</v>
       </c>
@@ -16600,7 +19939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" s="1">
         <v>44444</v>
       </c>
@@ -16608,7 +19947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" s="1">
         <v>44458</v>
       </c>
@@ -16616,7 +19955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204" s="1">
         <v>44465</v>
       </c>
@@ -16624,7 +19963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205" s="1">
         <v>44724</v>
       </c>
@@ -16632,7 +19971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206" s="1">
         <v>45116</v>
       </c>
@@ -16640,7 +19979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207" s="1">
         <v>45130</v>
       </c>
@@ -16648,7 +19987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208" s="1">
         <v>44052</v>
       </c>
@@ -16656,7 +19995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209" s="1">
         <v>44059</v>
       </c>
@@ -16664,7 +20003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210" s="1">
         <v>44115</v>
       </c>
@@ -16672,7 +20011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211" s="1">
         <v>44136</v>
       </c>
@@ -16680,7 +20019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212" s="1">
         <v>44703</v>
       </c>
@@ -16688,7 +20027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213" s="1">
         <v>44717</v>
       </c>
@@ -16696,7 +20035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214" s="1">
         <v>44801</v>
       </c>
@@ -16704,7 +20043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215" s="1">
         <v>44913</v>
       </c>
@@ -16712,7 +20051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216" s="1">
         <v>45466</v>
       </c>
@@ -16720,7 +20059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217" s="1">
         <v>45515</v>
       </c>
@@ -16728,7 +20067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218" s="1">
         <v>44017</v>
       </c>
@@ -16736,7 +20075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219" s="1">
         <v>44066</v>
       </c>
@@ -16744,7 +20083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220" s="1">
         <v>44101</v>
       </c>
@@ -16752,7 +20091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221" s="1">
         <v>44241</v>
       </c>
@@ -16760,7 +20099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222" s="1">
         <v>44339</v>
       </c>
@@ -16768,7 +20107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223" s="1">
         <v>44437</v>
       </c>
@@ -16776,7 +20115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224" s="1">
         <v>44591</v>
       </c>
@@ -16784,7 +20123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" s="1">
         <v>44780</v>
       </c>
@@ -16792,7 +20131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" s="1">
         <v>44948</v>
       </c>
@@ -16800,7 +20139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" s="1">
         <v>45151</v>
       </c>
@@ -16808,7 +20147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228" s="1">
         <v>45158</v>
       </c>
@@ -16816,7 +20155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229" s="1">
         <v>45165</v>
       </c>
@@ -16824,7 +20163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" s="1">
         <v>43996</v>
       </c>
@@ -16832,7 +20171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231" s="1">
         <v>44010</v>
       </c>
@@ -16840,7 +20179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" s="1">
         <v>44045</v>
       </c>
@@ -16848,7 +20187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233" s="1">
         <v>44129</v>
       </c>
@@ -16856,7 +20195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" s="1">
         <v>44185</v>
       </c>
@@ -16864,7 +20203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" s="1">
         <v>44192</v>
       </c>
@@ -16872,7 +20211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" s="1">
         <v>44234</v>
       </c>
@@ -16880,7 +20219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" s="1">
         <v>44360</v>
       </c>
@@ -16888,7 +20227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="1">
         <v>44402</v>
       </c>
@@ -16896,7 +20235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" s="1">
         <v>44710</v>
       </c>
@@ -16904,7 +20243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" s="1">
         <v>44773</v>
       </c>
@@ -16912,7 +20251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" s="1">
         <v>44787</v>
       </c>
@@ -16920,7 +20259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" s="1">
         <v>45095</v>
       </c>
@@ -16928,7 +20267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243" s="1">
         <v>45109</v>
       </c>
@@ -16936,7 +20275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244" s="1">
         <v>45144</v>
       </c>
@@ -16944,7 +20283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245" s="1">
         <v>45473</v>
       </c>
@@ -16952,7 +20291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246" s="1">
         <v>45508</v>
       </c>
@@ -16960,7 +20299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247" s="1">
         <v>43982</v>
       </c>
@@ -16968,7 +20307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248" s="1">
         <v>43989</v>
       </c>
@@ -16976,7 +20315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249" s="1">
         <v>44003</v>
       </c>
@@ -16984,7 +20323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250" s="1">
         <v>44024</v>
       </c>
@@ -16992,7 +20331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251" s="1">
         <v>44388</v>
       </c>
@@ -17000,7 +20339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252" s="1">
         <v>44423</v>
       </c>
@@ -17008,7 +20347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253" s="1">
         <v>44549</v>
       </c>
@@ -17016,7 +20355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254" s="1">
         <v>44794</v>
       </c>
@@ -17024,7 +20363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255" s="1">
         <v>45137</v>
       </c>
@@ -17032,7 +20371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256" s="1">
         <v>43975</v>
       </c>
@@ -17040,7 +20379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257" s="1">
         <v>44367</v>
       </c>
@@ -17048,7 +20387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2">
       <c r="A258" s="1">
         <v>44381</v>
       </c>
@@ -17056,7 +20395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2">
       <c r="A259" s="1">
         <v>44430</v>
       </c>
@@ -17064,7 +20403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260" s="1">
         <v>45102</v>
       </c>
@@ -17072,7 +20411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261" s="1">
         <v>45501</v>
       </c>
@@ -17080,7 +20419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2">
       <c r="A262" s="1">
         <v>44416</v>
       </c>
@@ -17088,7 +20427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2">
       <c r="A263" s="1">
         <v>44374</v>
       </c>
@@ -17096,7 +20435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2">
       <c r="A264" s="1">
         <v>44409</v>
       </c>
@@ -17105,6 +20444,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
